--- a/static/modelos/descricao_lote_imp.xlsx
+++ b/static/modelos/descricao_lote_imp.xlsx
@@ -24,25 +24,25 @@
     <definedName function="false" hidden="false" name="Controladoria" vbProcedure="false">'Sub Familia'!$K$4:$K$9</definedName>
     <definedName function="false" hidden="false" name="Engenharia" vbProcedure="false">'Sub Familia'!$L$4:$L$6</definedName>
     <definedName function="false" hidden="false" name="Financeiro" vbProcedure="false">'Sub Familia'!$M$4:$M$16</definedName>
-    <definedName function="false" hidden="false" name="Gerenciamento de Riscos" vbProcedure="false">'Sub Familia'!$N$4</definedName>
+    <definedName function="false" hidden="false" name="Gerenciamento_de_Riscos" vbProcedure="false">'Sub Familia'!$N$4</definedName>
     <definedName function="false" hidden="false" name="Gestão" vbProcedure="false">'Sub Familia'!$O$4:$O$5</definedName>
-    <definedName function="false" hidden="false" name="Importação e Exportação" vbProcedure="false">'Sub Familia'!$P$4:$P$6</definedName>
+    <definedName function="false" hidden="false" name="Importação_e_Exportação" vbProcedure="false">'Sub Familia'!$P$4:$P$6</definedName>
     <definedName function="false" hidden="false" name="Jurídico" vbProcedure="false">'Sub Familia'!$R$4:$R$12</definedName>
     <definedName function="false" hidden="false" name="Logística" vbProcedure="false">'Sub Familia'!$S$4:$S$13</definedName>
     <definedName function="false" hidden="false" name="Manutenção" vbProcedure="false">'Sub Familia'!$U$4:$U$28</definedName>
     <definedName function="false" hidden="false" name="Marketing" vbProcedure="false">'Sub Familia'!$V$4:$V$6</definedName>
-    <definedName function="false" hidden="false" name="Meio Ambiente" vbProcedure="false">'Sub Familia'!$W$4</definedName>
+    <definedName function="false" hidden="false" name="MA_Mergers_and_Acquisitions" vbProcedure="false">'Sub Familia'!$T$4</definedName>
+    <definedName function="false" hidden="false" name="Meio_Ambiente" vbProcedure="false">'Sub Familia'!$W$4</definedName>
     <definedName function="false" hidden="false" name="Mineração" vbProcedure="false">'Sub Familia'!$X$4:$X$14</definedName>
-    <definedName function="false" hidden="false" name="M A" vbProcedure="false">'Sub Familia'!$T$4</definedName>
-    <definedName function="false" hidden="false" name="Novos Negócios" vbProcedure="false">'Sub Familia'!$Y$4</definedName>
+    <definedName function="false" hidden="false" name="Novos_Negócios" vbProcedure="false">'Sub Familia'!$Y$4</definedName>
     <definedName function="false" hidden="false" name="Operação" vbProcedure="false">'Sub Familia'!$Z$4:$Z$15</definedName>
     <definedName function="false" hidden="false" name="Projetos" vbProcedure="false">'Sub Familia'!$AA$4:$AA$7</definedName>
     <definedName function="false" hidden="false" name="Qualidade" vbProcedure="false">'Sub Familia'!$AB$4:$AB$10</definedName>
-    <definedName function="false" hidden="false" name="Recursos Humanos" vbProcedure="false">'Sub Familia'!$AC$4:$AC$21</definedName>
-    <definedName function="false" hidden="false" name="Saúde e Segurança do Trabalho" vbProcedure="false">'Sub Familia'!$AD$4:$AD$8</definedName>
+    <definedName function="false" hidden="false" name="Recursos_Humanos" vbProcedure="false">'Sub Familia'!$AC$4:$AC$21</definedName>
+    <definedName function="false" hidden="false" name="Saúde_e_Segurança_do_Trabalho" vbProcedure="false">'Sub Familia'!$AD$4:$AD$8</definedName>
     <definedName function="false" hidden="false" name="Suprimentos" vbProcedure="false">'Sub Familia'!$AE$4:$AE$12</definedName>
     <definedName function="false" hidden="false" name="Sustentabilidade" vbProcedure="false">'Sub Familia'!$AF$4:$AF$5</definedName>
-    <definedName function="false" hidden="false" name="Tecnologia da Informação" vbProcedure="false">'Sub Familia'!$AG$4:$AG$29</definedName>
+    <definedName function="false" hidden="false" name="Tecnologia_da_Informação" vbProcedure="false">'Sub Familia'!$AG$4:$AG$29</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -98,13 +98,13 @@
     <t xml:space="preserve">Financeiro</t>
   </si>
   <si>
-    <t xml:space="preserve">Gerenciamento de Riscos</t>
+    <t xml:space="preserve">Gerenciamento_de_Riscos</t>
   </si>
   <si>
     <t xml:space="preserve">Gestão</t>
   </si>
   <si>
-    <t xml:space="preserve">Importação e Exportação</t>
+    <t xml:space="preserve">Importação_e_Exportação</t>
   </si>
   <si>
     <t xml:space="preserve">Jurídico</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">Logística</t>
   </si>
   <si>
-    <t xml:space="preserve">MA Mergers and Acquisitions</t>
+    <t xml:space="preserve">MA_Mergers_and_Acquisitions</t>
   </si>
   <si>
     <t xml:space="preserve">Manutenção</t>
@@ -122,13 +122,13 @@
     <t xml:space="preserve">Marketing</t>
   </si>
   <si>
-    <t xml:space="preserve">Meio Ambiente</t>
+    <t xml:space="preserve">Meio_Ambiente</t>
   </si>
   <si>
     <t xml:space="preserve">Mineração</t>
   </si>
   <si>
-    <t xml:space="preserve">Novos Negócios</t>
+    <t xml:space="preserve">Novos_Negócios</t>
   </si>
   <si>
     <t xml:space="preserve">Operação</t>
@@ -140,10 +140,10 @@
     <t xml:space="preserve">Qualidade</t>
   </si>
   <si>
-    <t xml:space="preserve">Recursos Humanos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saúde e Segurança do Trabalho</t>
+    <t xml:space="preserve">Recursos_Humanos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saúde_e_Segurança_do_Trabalho</t>
   </si>
   <si>
     <t xml:space="preserve">Suprimentos</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">Sustentabilidade</t>
   </si>
   <si>
-    <t xml:space="preserve">Tecnologia da Informação</t>
+    <t xml:space="preserve">Tecnologia_da_Informação</t>
   </si>
   <si>
     <t xml:space="preserve">Id</t>
@@ -1277,8 +1277,8 @@
   </sheetPr>
   <dimension ref="A1:AG203"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/static/modelos/descricao_lote_imp.xlsx
+++ b/static/modelos/descricao_lote_imp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo importação" sheetId="1" state="visible" r:id="rId2"/>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">Logística</t>
   </si>
   <si>
-    <t xml:space="preserve">MA_Mergers_and_Acquisitions</t>
+    <t xml:space="preserve">MA</t>
   </si>
   <si>
     <t xml:space="preserve">Manutenção</t>
@@ -176,427 +176,427 @@
     <t xml:space="preserve">Importação e Exportação</t>
   </si>
   <si>
+    <t xml:space="preserve">Meio Ambiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novos Negócios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursos Humanos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saúde e Segurança do Trabalho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tecnologia da Informação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controles Internos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administração de Vendas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contabilidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobrança</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comércio Exterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assuntos Regulatórios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armazenagem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M&amp;A (Mergers and Acquisitions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abastecimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planejamento de Mina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apoio à Operação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquitetura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controle da Qualidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administração de Pessoal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medicina do Trabalho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almoxarifado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquiteto de Dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assistência Técnica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunicação Externa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contas a Pagar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segurança Empresarial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controle de Tráfego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apoio à Manutenção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploração Mineral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projetos de Engenharia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controle Farmacêutico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assistência Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saúde Ocupacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquitetura de Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestão de Indicadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atendimento ao cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunicação Interna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engenharia de Processos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contas a Receber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segurança Aduaneira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contencioso Civel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribuição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automotiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marketing Digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sondagem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestão de Projetos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantia da Qualidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benefícios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segurança do Trabalho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compras - mercado externo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banco de Dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretária</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiscal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crédito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contencioso Tributário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expedição de Carga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borracheiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lavra / Operação de Mina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operação de Equipamentos Móveis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboratório</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Partner em RH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compras - mercado interno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Inteligence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segurança Patrimonial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiscal Tributário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crédito e Cobrança</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empresarial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestão de Frota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confiabilidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operação equipamentos de perfuração</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operação de Máquinas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melhoria Continua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargos e Salários</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfermagem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controle de Materiais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Partner em TI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviços de Copa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exportação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recebimento Fiscal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faturamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imobiliário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implantação Projetos Logísticos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elétrica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operação equipamentos de transporte de minério</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolvimento de Pessoas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estoque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cientista de Dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviços de Limpeza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestão de Contratos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eletrônico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operação equipamentos de carregamento de minério</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pesquisa Operacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualidade Operacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estruturação Organizacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expedição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolvedor BI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de Gestão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licitação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planejamento Estratégico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulatório-EXCLUIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movimentação de Carga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engenharia de Manutenção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engenharia de Mina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orçamento de Pessoal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S&amp;OP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolvimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merchandising</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planejamento Financeiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trabalhista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movimentação de Materiais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferramentaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geologia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projetos Sociais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engenharia de Dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pré Vendas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planejamento Tributário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tratamento de Resíduos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recrutamento e Seleção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funcional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precificação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relação com Investidores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jardinagem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eletromecânica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infraestrutura de TI</t>
+  </si>
+  <si>
     <t xml:space="preserve">M&amp;A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meio Ambiente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Novos Negócios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recursos Humanos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saúde e Segurança do Trabalho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tecnologia da Informação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controles Internos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administração de Vendas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contabilidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cobrança</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comércio Exterior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assuntos Regulatórios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armazenagem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M&amp;A (Mergers and Acquisitions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abastecimento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planejamento de Mina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apoio à Operação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arquitetura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controle da Qualidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administração de Pessoal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medicina do Trabalho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Almoxarifado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arquiteto de Dados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assistência Técnica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comunicação Externa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contas a Pagar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segurança Empresarial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controle de Tráfego</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apoio à Manutenção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploração Mineral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projetos de Engenharia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controle Farmacêutico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assistência Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saúde Ocupacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arquitetura de Software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestão de Indicadores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atendimento ao cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comunicação Interna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Custos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engenharia de Processos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contas a Receber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segurança Aduaneira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contencioso Civel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribuição</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automotiva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marketing Digital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sondagem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestão de Projetos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garantia da Qualidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benefícios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segurança do Trabalho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compras - mercado externo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banco de Dados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secretária</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiscal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crédito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contencioso Tributário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expedição de Carga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borracheiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lavra / Operação de Mina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operação de Equipamentos Móveis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laboratório</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business Partner em RH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compras - mercado interno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business Inteligence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segurança Patrimonial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiscal Tributário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crédito e Cobrança</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empresarial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestão de Frota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confiabilidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operação equipamentos de perfuração</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operação de Máquinas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melhoria Continua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cargos e Salários</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enfermagem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controle de Materiais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business Partner em TI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serviços de Copa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exportação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recebimento Fiscal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faturamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imobiliário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implantação Projetos Logísticos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elétrica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operação equipamentos de transporte de minério</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvimento de Pessoas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estoque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cientista de Dados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serviços de Limpeza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestão de Contratos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eletrônico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operação equipamentos de carregamento de minério</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pesquisa Operacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qualidade Operacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estruturação Organizacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expedição</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvedor BI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema de Gestão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Licitação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planejamento Estratégico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulatório-EXCLUIDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Movimentação de Carga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engenharia de Manutenção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engenharia de Mina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orçamento de Pessoal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S&amp;OP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvimento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merchandising</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planejamento Financeiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trabalhista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Movimentação de Materiais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ferramentaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geologia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projetos Sociais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engenharia de Dados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pré Vendas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planejamento Tributário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transporte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Industrial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tratamento de Resíduos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recrutamento e Seleção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funcional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precificação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relação com Investidores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jardinagem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eletromecânica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infraestrutura de TI</t>
   </si>
   <si>
     <t xml:space="preserve">Projetos Logísticos</t>
@@ -912,18 +912,18 @@
   </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -993,7 +993,7 @@
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.89"/>
   </cols>
@@ -1019,7 +1019,7 @@
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="13.33"/>
   </cols>
@@ -1042,12 +1042,12 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.33"/>
   </cols>
   <sheetData>
@@ -1277,26 +1277,26 @@
   </sheetPr>
   <dimension ref="A1:AG203"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T4" activeCellId="0" sqref="T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.1"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="28.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="22.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="22.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="20.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="22.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="20.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="20.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="27.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="28.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="26.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="26.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="13.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="45.89"/>
@@ -1445,7 +1445,7 @@
         <v>18</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="U3" s="0" t="s">
         <v>20</v>
@@ -1454,13 +1454,13 @@
         <v>21</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X3" s="0" t="s">
         <v>23</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z3" s="0" t="s">
         <v>25</v>
@@ -1472,10 +1472,10 @@
         <v>27</v>
       </c>
       <c r="AC3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD3" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="AD3" s="0" t="s">
-        <v>44</v>
       </c>
       <c r="AE3" s="0" t="s">
         <v>30</v>
@@ -1484,7 +1484,7 @@
         <v>31</v>
       </c>
       <c r="AG3" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1492,7 +1492,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -1507,19 +1507,19 @@
         <v>8</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="M4" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>50</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>38</v>
@@ -1528,55 +1528,55 @@
         <v>15</v>
       </c>
       <c r="P4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="R4" s="0" t="s">
+      <c r="S4" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="0" t="s">
+      <c r="T4" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="T4" s="0" t="s">
+      <c r="U4" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="0" t="s">
+      <c r="V4" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="0" t="s">
+      <c r="W4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="W4" s="0" t="s">
+      <c r="Y4" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="X4" s="0" t="s">
+      <c r="Z4" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="Y4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z4" s="0" t="s">
+      <c r="AA4" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="AA4" s="0" t="s">
+      <c r="AB4" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="AB4" s="0" t="s">
+      <c r="AC4" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="AC4" s="0" t="s">
+      <c r="AD4" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="AD4" s="0" t="s">
+      <c r="AE4" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="AE4" s="0" t="s">
-        <v>63</v>
       </c>
       <c r="AF4" s="0" t="s">
         <v>31</v>
       </c>
       <c r="AG4" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1584,7 +1584,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
@@ -1596,10 +1596,10 @@
         <v>37</v>
       </c>
       <c r="I5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>67</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>11</v>
@@ -1608,52 +1608,52 @@
         <v>12</v>
       </c>
       <c r="M5" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>69</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>39</v>
       </c>
       <c r="R5" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="S5" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="S5" s="0" t="s">
+      <c r="U5" s="0" t="s">
         <v>71</v>
-      </c>
-      <c r="U5" s="0" t="s">
-        <v>72</v>
       </c>
       <c r="V5" s="0" t="s">
         <v>21</v>
       </c>
       <c r="X5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z5" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="Z5" s="0" t="s">
+      <c r="AA5" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="AA5" s="0" t="s">
+      <c r="AB5" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="AB5" s="0" t="s">
+      <c r="AC5" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="AC5" s="0" t="s">
+      <c r="AD5" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="AD5" s="0" t="s">
+      <c r="AE5" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="AE5" s="0" t="s">
+      <c r="AF5" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="AF5" s="0" t="s">
+      <c r="AG5" s="0" t="s">
         <v>80</v>
-      </c>
-      <c r="AG5" s="0" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1661,7 +1661,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -1670,61 +1670,61 @@
         <v>10</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I6" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="K6" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="L6" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="M6" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="P6" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="P6" s="0" t="s">
+      <c r="R6" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="R6" s="0" t="s">
+      <c r="S6" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="S6" s="0" t="s">
+      <c r="U6" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="U6" s="0" t="s">
+      <c r="V6" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="V6" s="0" t="s">
+      <c r="X6" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="X6" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="Z6" s="0" t="s">
         <v>25</v>
       </c>
       <c r="AA6" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB6" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="AB6" s="0" t="s">
+      <c r="AC6" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="AC6" s="0" t="s">
+      <c r="AD6" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="AD6" s="0" t="s">
+      <c r="AE6" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AE6" s="0" t="s">
+      <c r="AG6" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="AG6" s="0" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,7 +1732,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -1741,52 +1741,52 @@
         <v>11</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="J7" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="M7" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="R7" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="R7" s="0" t="s">
+      <c r="S7" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="S7" s="0" t="s">
+      <c r="U7" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="U7" s="0" t="s">
+      <c r="X7" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="X7" s="0" t="s">
+      <c r="Z7" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="Z7" s="0" t="s">
-        <v>108</v>
       </c>
       <c r="AA7" s="0" t="s">
         <v>26</v>
       </c>
       <c r="AB7" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC7" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="AC7" s="0" t="s">
+      <c r="AD7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE7" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="AD7" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE7" s="0" t="s">
+      <c r="AG7" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="AG7" s="0" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1794,7 +1794,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -1803,46 +1803,46 @@
         <v>12</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I8" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="M8" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="R8" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="R8" s="0" t="s">
+      <c r="S8" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="S8" s="0" t="s">
+      <c r="U8" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="U8" s="0" t="s">
+      <c r="X8" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="X8" s="0" t="s">
+      <c r="Z8" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="Z8" s="0" t="s">
+      <c r="AB8" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="AB8" s="0" t="s">
+      <c r="AC8" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="AC8" s="0" t="s">
+      <c r="AD8" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="AD8" s="0" t="s">
+      <c r="AE8" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="AE8" s="0" t="s">
+      <c r="AG8" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="AG8" s="0" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1850,7 +1850,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -1859,43 +1859,43 @@
         <v>13</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I9" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="M9" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="R9" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="R9" s="0" t="s">
+      <c r="S9" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="S9" s="0" t="s">
+      <c r="U9" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="U9" s="0" t="s">
+      <c r="X9" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="X9" s="0" t="s">
+      <c r="Z9" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="Z9" s="0" t="s">
-        <v>135</v>
       </c>
       <c r="AB9" s="0" t="s">
         <v>27</v>
       </c>
       <c r="AC9" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE9" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="AE9" s="0" t="s">
+      <c r="AG9" s="0" t="s">
         <v>137</v>
-      </c>
-      <c r="AG9" s="0" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1903,7 +1903,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -1912,10 +1912,10 @@
         <v>38</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>13</v>
@@ -1927,25 +1927,25 @@
         <v>18</v>
       </c>
       <c r="U10" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="X10" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="X10" s="0" t="s">
+      <c r="Z10" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="Z10" s="0" t="s">
+      <c r="AB10" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="AB10" s="0" t="s">
+      <c r="AC10" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="AC10" s="0" t="s">
+      <c r="AE10" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="AE10" s="0" t="s">
+      <c r="AG10" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="AG10" s="0" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1953,7 +1953,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -1962,37 +1962,37 @@
         <v>15</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I11" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="M11" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="R11" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="R11" s="0" t="s">
+      <c r="S11" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="S11" s="0" t="s">
+      <c r="U11" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="U11" s="0" t="s">
+      <c r="X11" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="X11" s="0" t="s">
+      <c r="Z11" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="Z11" s="0" t="s">
+      <c r="AC11" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="AC11" s="0" t="s">
+      <c r="AE11" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="AE11" s="0" t="s">
+      <c r="AG11" s="0" t="s">
         <v>157</v>
-      </c>
-      <c r="AG11" s="0" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2009,37 +2009,37 @@
         <v>39</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I12" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="M12" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="M12" s="0" t="s">
+      <c r="R12" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="R12" s="0" t="s">
+      <c r="S12" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="S12" s="0" t="s">
+      <c r="U12" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="U12" s="0" t="s">
+      <c r="X12" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="X12" s="0" t="s">
+      <c r="Z12" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="Z12" s="0" t="s">
+      <c r="AC12" s="0" t="s">
         <v>165</v>
-      </c>
-      <c r="AC12" s="0" t="s">
-        <v>166</v>
       </c>
       <c r="AE12" s="0" t="s">
         <v>30</v>
       </c>
       <c r="AG12" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2047,7 +2047,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>3</v>
@@ -2056,31 +2056,31 @@
         <v>17</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I13" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="M13" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="S13" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="S13" s="0" t="s">
+      <c r="U13" s="0" t="s">
         <v>170</v>
-      </c>
-      <c r="U13" s="0" t="s">
-        <v>171</v>
       </c>
       <c r="X13" s="0" t="s">
         <v>23</v>
       </c>
       <c r="Z13" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC13" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="AC13" s="0" t="s">
+      <c r="AG13" s="0" t="s">
         <v>173</v>
-      </c>
-      <c r="AG13" s="0" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2088,7 +2088,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>3</v>
@@ -2097,25 +2097,25 @@
         <v>18</v>
       </c>
       <c r="I14" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="M14" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="M14" s="0" t="s">
+      <c r="U14" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="U14" s="0" t="s">
+      <c r="X14" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="X14" s="0" t="s">
+      <c r="Z14" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="Z14" s="0" t="s">
+      <c r="AC14" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG14" s="0" t="s">
         <v>179</v>
-      </c>
-      <c r="AC14" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG14" s="0" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2123,13 +2123,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>181</v>
@@ -2184,7 +2184,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>3</v>
@@ -2210,13 +2210,13 @@
         <v>18</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>195</v>
@@ -2236,7 +2236,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>3</v>
@@ -2262,13 +2262,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>203</v>
@@ -2288,7 +2288,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>3</v>
@@ -2314,7 +2314,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>3</v>
@@ -2334,7 +2334,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>3</v>
@@ -2360,13 +2360,13 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG24" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2380,10 +2380,10 @@
         <v>3</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG25" s="0" t="s">
         <v>215</v>
@@ -2431,13 +2431,13 @@
         <v>29</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U28" s="0" t="s">
         <v>219</v>
@@ -2448,7 +2448,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>4</v>
@@ -2459,7 +2459,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>4</v>
@@ -2470,7 +2470,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>5</v>
@@ -2492,7 +2492,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>5</v>
@@ -2503,7 +2503,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>5</v>
@@ -2514,7 +2514,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>5</v>
@@ -2525,7 +2525,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>5</v>
@@ -2536,7 +2536,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>6</v>
@@ -2558,7 +2558,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>6</v>
@@ -2569,7 +2569,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>7</v>
@@ -2580,7 +2580,7 @@
         <v>43</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>7</v>
@@ -2591,7 +2591,7 @@
         <v>44</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>7</v>
@@ -2602,7 +2602,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>7</v>
@@ -2613,7 +2613,7 @@
         <v>46</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>7</v>
@@ -2624,7 +2624,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>7</v>
@@ -2646,7 +2646,7 @@
         <v>49</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>7</v>
@@ -2657,7 +2657,7 @@
         <v>50</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>7</v>
@@ -2668,7 +2668,7 @@
         <v>51</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>7</v>
@@ -2679,7 +2679,7 @@
         <v>52</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>7</v>
@@ -2723,7 +2723,7 @@
         <v>56</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>9</v>
@@ -2745,7 +2745,7 @@
         <v>58</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>9</v>
@@ -2756,7 +2756,7 @@
         <v>59</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>10</v>
@@ -2767,7 +2767,7 @@
         <v>60</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>10</v>
@@ -2778,7 +2778,7 @@
         <v>61</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>10</v>
@@ -2789,7 +2789,7 @@
         <v>62</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>10</v>
@@ -2800,7 +2800,7 @@
         <v>63</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>10</v>
@@ -2811,7 +2811,7 @@
         <v>64</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>10</v>
@@ -2833,7 +2833,7 @@
         <v>66</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>10</v>
@@ -2844,7 +2844,7 @@
         <v>67</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>10</v>
@@ -2855,7 +2855,7 @@
         <v>68</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>11</v>
@@ -2866,7 +2866,7 @@
         <v>69</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>11</v>
@@ -2877,7 +2877,7 @@
         <v>70</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>11</v>
@@ -2888,7 +2888,7 @@
         <v>71</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>11</v>
@@ -2899,7 +2899,7 @@
         <v>72</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>11</v>
@@ -2910,7 +2910,7 @@
         <v>73</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>11</v>
@@ -2932,7 +2932,7 @@
         <v>75</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>11</v>
@@ -2943,7 +2943,7 @@
         <v>76</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>11</v>
@@ -2954,7 +2954,7 @@
         <v>77</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>11</v>
@@ -2965,7 +2965,7 @@
         <v>78</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>12</v>
@@ -2976,7 +2976,7 @@
         <v>79</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>13</v>
@@ -2987,7 +2987,7 @@
         <v>80</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>13</v>
@@ -2998,7 +2998,7 @@
         <v>81</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>13</v>
@@ -3009,7 +3009,7 @@
         <v>82</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>13</v>
@@ -3020,7 +3020,7 @@
         <v>83</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>13</v>
@@ -3031,7 +3031,7 @@
         <v>84</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>13</v>
@@ -3042,7 +3042,7 @@
         <v>85</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>13</v>
@@ -3053,7 +3053,7 @@
         <v>86</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>13</v>
@@ -3064,7 +3064,7 @@
         <v>87</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>13</v>
@@ -3075,7 +3075,7 @@
         <v>88</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>13</v>
@@ -3086,7 +3086,7 @@
         <v>89</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>13</v>
@@ -3207,7 +3207,7 @@
         <v>100</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>14</v>
@@ -3229,7 +3229,7 @@
         <v>102</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>14</v>
@@ -3240,7 +3240,7 @@
         <v>103</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>15</v>
@@ -3251,7 +3251,7 @@
         <v>104</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>16</v>
@@ -3262,7 +3262,7 @@
         <v>105</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>16</v>
@@ -3284,7 +3284,7 @@
         <v>107</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>16</v>
@@ -3295,7 +3295,7 @@
         <v>108</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>16</v>
@@ -3306,7 +3306,7 @@
         <v>109</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>16</v>
@@ -3317,7 +3317,7 @@
         <v>110</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>16</v>
@@ -3328,7 +3328,7 @@
         <v>111</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>16</v>
@@ -3339,7 +3339,7 @@
         <v>112</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>16</v>
@@ -3350,7 +3350,7 @@
         <v>113</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>16</v>
@@ -3361,7 +3361,7 @@
         <v>114</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>16</v>
@@ -3372,7 +3372,7 @@
         <v>115</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>17</v>
@@ -3383,7 +3383,7 @@
         <v>116</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>17</v>
@@ -3394,7 +3394,7 @@
         <v>117</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>17</v>
@@ -3416,7 +3416,7 @@
         <v>119</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>18</v>
@@ -3427,7 +3427,7 @@
         <v>120</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>18</v>
@@ -3438,7 +3438,7 @@
         <v>121</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>18</v>
@@ -3449,7 +3449,7 @@
         <v>122</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>18</v>
@@ -3460,7 +3460,7 @@
         <v>123</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>18</v>
@@ -3482,7 +3482,7 @@
         <v>125</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>18</v>
@@ -3493,7 +3493,7 @@
         <v>126</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>19</v>
@@ -3504,7 +3504,7 @@
         <v>127</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>19</v>
@@ -3515,7 +3515,7 @@
         <v>128</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>19</v>
@@ -3526,7 +3526,7 @@
         <v>129</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>19</v>
@@ -3537,7 +3537,7 @@
         <v>130</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>19</v>
@@ -3548,7 +3548,7 @@
         <v>131</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>19</v>
@@ -3559,7 +3559,7 @@
         <v>132</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>19</v>
@@ -3570,7 +3570,7 @@
         <v>133</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>19</v>
@@ -3581,7 +3581,7 @@
         <v>134</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>19</v>
@@ -3592,7 +3592,7 @@
         <v>135</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>19</v>
@@ -3603,7 +3603,7 @@
         <v>136</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>19</v>
@@ -3680,7 +3680,7 @@
         <v>143</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>20</v>
@@ -3691,7 +3691,7 @@
         <v>144</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>25</v>
@@ -3702,7 +3702,7 @@
         <v>145</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>20</v>
@@ -3713,7 +3713,7 @@
         <v>146</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>20</v>
@@ -3724,7 +3724,7 @@
         <v>147</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>20</v>
@@ -3735,7 +3735,7 @@
         <v>148</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>21</v>
@@ -3746,7 +3746,7 @@
         <v>149</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>21</v>
@@ -3757,7 +3757,7 @@
         <v>150</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>21</v>
@@ -3768,7 +3768,7 @@
         <v>151</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>21</v>
@@ -3779,7 +3779,7 @@
         <v>152</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>21</v>
@@ -3790,7 +3790,7 @@
         <v>153</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>21</v>
@@ -3801,7 +3801,7 @@
         <v>154</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>21</v>
@@ -3812,7 +3812,7 @@
         <v>155</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>21</v>
@@ -3845,7 +3845,7 @@
         <v>158</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>23</v>
@@ -3856,7 +3856,7 @@
         <v>159</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>23</v>
@@ -3867,7 +3867,7 @@
         <v>160</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>23</v>
@@ -3878,7 +3878,7 @@
         <v>161</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>23</v>
@@ -3889,7 +3889,7 @@
         <v>162</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>23</v>
@@ -3900,7 +3900,7 @@
         <v>163</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>23</v>
@@ -3911,7 +3911,7 @@
         <v>164</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>23</v>
@@ -3922,7 +3922,7 @@
         <v>165</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>23</v>
@@ -3933,7 +3933,7 @@
         <v>166</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>23</v>
@@ -3944,7 +3944,7 @@
         <v>167</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>23</v>
@@ -3955,7 +3955,7 @@
         <v>168</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>23</v>
@@ -4065,7 +4065,7 @@
         <v>178</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>23</v>
@@ -4087,7 +4087,7 @@
         <v>180</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>22</v>
@@ -4164,7 +4164,7 @@
         <v>187</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C185" s="0" t="n">
         <v>26</v>
@@ -4175,7 +4175,7 @@
         <v>188</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C186" s="0" t="n">
         <v>26</v>
@@ -4186,7 +4186,7 @@
         <v>189</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C187" s="0" t="n">
         <v>26</v>
@@ -4197,7 +4197,7 @@
         <v>190</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C188" s="0" t="n">
         <v>26</v>
@@ -4208,7 +4208,7 @@
         <v>191</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C189" s="0" t="n">
         <v>26</v>
@@ -4219,7 +4219,7 @@
         <v>192</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C190" s="0" t="n">
         <v>26</v>
@@ -4230,7 +4230,7 @@
         <v>193</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C191" s="0" t="n">
         <v>26</v>
@@ -4241,7 +4241,7 @@
         <v>194</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C192" s="0" t="n">
         <v>26</v>
@@ -4252,7 +4252,7 @@
         <v>195</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C193" s="0" t="n">
         <v>26</v>
@@ -4274,7 +4274,7 @@
         <v>197</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C195" s="0" t="n">
         <v>26</v>
@@ -4285,7 +4285,7 @@
         <v>198</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C196" s="0" t="n">
         <v>20</v>
@@ -4296,7 +4296,7 @@
         <v>199</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C197" s="0" t="n">
         <v>24</v>
@@ -4307,7 +4307,7 @@
         <v>200</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C198" s="0" t="n">
         <v>13</v>
@@ -4329,7 +4329,7 @@
         <v>202</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C200" s="0" t="n">
         <v>13</v>
@@ -4395,7 +4395,7 @@
       <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.11"/>
   </cols>

--- a/static/modelos/descricao_lote_imp.xlsx
+++ b/static/modelos/descricao_lote_imp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo importação" sheetId="1" state="visible" r:id="rId2"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="244">
   <si>
     <t xml:space="preserve">Titulo</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t xml:space="preserve">CargoSuperiorImediato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incluir a Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incluir a SubArea</t>
   </si>
   <si>
     <t xml:space="preserve">Administrativo</t>
@@ -912,18 +918,18 @@
   </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -950,12 +956,12 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="7">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E1001" type="list">
       <formula1>INDIRECT(D2)</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Selecione uma opção da Lista!!" errorStyle="stop" errorTitle="Dado Invalido" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C25" type="list">
+    <dataValidation allowBlank="false" error="Selecione uma opção da Lista!!" errorStyle="stop" errorTitle="Dado Invalido" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C3:C25" type="list">
       <formula1>Subarea!$A$1:$A$26</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -963,12 +969,20 @@
       <formula1>Nivel!$A$1:$A$499</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Selecione uma opção da Lista!!" errorStyle="stop" errorTitle="Dado Invalido" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B2:B25" type="list">
+    <dataValidation allowBlank="false" error="Selecione uma opção da Lista!!" errorStyle="stop" errorTitle="Dado Invalido" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3:B25" type="list">
       <formula1>Area!$A$1:$A$500</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D38" type="list">
       <formula1>Familia!$B$1:$B$26</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Selecione uma opção da Lista!!" errorStyle="stop" errorTitle="Dado Invalido" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B2" type="list">
+      <formula1>Area!$A$2:$A$500</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Selecione uma opção da Lista!!" errorStyle="stop" errorTitle="Dado Invalido" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2" type="list">
+      <formula1>Subarea!$A$2:$A$500</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -990,14 +1004,20 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.89"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1016,14 +1036,20 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="13.33"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1045,9 +1071,9 @@
       <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.33"/>
   </cols>
   <sheetData>
@@ -1056,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1064,7 +1090,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1072,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1080,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1088,7 +1114,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1096,7 +1122,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1104,7 +1130,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1112,7 +1138,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1120,7 +1146,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1128,7 +1154,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1136,7 +1162,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1144,7 +1170,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1152,7 +1178,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1160,7 +1186,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1168,7 +1194,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1176,7 +1202,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1184,7 +1210,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1192,7 +1218,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1200,7 +1226,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1208,7 +1234,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1216,7 +1242,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1224,7 +1250,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1232,7 +1258,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1240,7 +1266,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1248,7 +1274,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1256,7 +1282,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1277,11 +1303,11 @@
   </sheetPr>
   <dimension ref="A1:AG203"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T4" activeCellId="0" sqref="T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.1"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="28.33"/>
@@ -1293,10 +1319,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="22.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="20.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="22.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="20.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="27.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="28.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="26.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="13.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="45.89"/>
@@ -1313,10 +1339,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1357,16 +1383,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1400,91 +1426,91 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AB3" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AE3" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF3" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AG3" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1492,91 +1518,91 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AA4" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB4" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AC4" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AE4" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AF4" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AG4" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1584,76 +1610,76 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AB5" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC5" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD5" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE5" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF5" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AG5" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1661,70 +1687,70 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Z6" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AB6" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AC6" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AD6" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AE6" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AG6" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,61 +1758,61 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="J7" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AA7" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AB7" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AC7" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AD7" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AE7" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG7" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1794,55 +1820,55 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Z8" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AB8" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AC8" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AD8" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AE8" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG8" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1850,52 +1876,52 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AB9" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC9" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AE9" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AG9" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1903,49 +1929,49 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Z10" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AB10" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AE10" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AG10" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1953,46 +1979,46 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="X11" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Z11" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AC11" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AE11" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AG11" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2000,46 +2026,46 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="X12" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Z12" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AC12" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AE12" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG12" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2047,40 +2073,40 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="X13" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z13" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AC13" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG13" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2088,34 +2114,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Z14" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AC14" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AG14" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2123,31 +2149,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Z15" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AC15" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AG15" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2155,28 +2181,28 @@
         <v>16</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AC16" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AG16" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2184,25 +2210,25 @@
         <v>17</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AC17" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG17" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2210,25 +2236,25 @@
         <v>18</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AC18" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG18" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2236,25 +2262,25 @@
         <v>19</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AC19" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AG19" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2262,25 +2288,25 @@
         <v>20</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC20" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AG20" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2288,25 +2314,25 @@
         <v>22</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AC21" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG21" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2314,19 +2340,19 @@
         <v>23</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG22" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2334,19 +2360,19 @@
         <v>24</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AG23" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2354,19 +2380,19 @@
         <v>25</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG24" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2374,19 +2400,19 @@
         <v>26</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AG25" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2394,19 +2420,19 @@
         <v>27</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AG26" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2414,16 +2440,16 @@
         <v>28</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2431,16 +2457,16 @@
         <v>29</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2448,7 +2474,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>4</v>
@@ -2459,7 +2485,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>4</v>
@@ -2470,7 +2496,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>5</v>
@@ -2481,7 +2507,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>5</v>
@@ -2492,7 +2518,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>5</v>
@@ -2503,7 +2529,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>5</v>
@@ -2514,7 +2540,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>5</v>
@@ -2525,7 +2551,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>5</v>
@@ -2536,7 +2562,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>6</v>
@@ -2547,7 +2573,7 @@
         <v>40</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>6</v>
@@ -2558,7 +2584,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>6</v>
@@ -2569,7 +2595,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>7</v>
@@ -2580,7 +2606,7 @@
         <v>43</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>7</v>
@@ -2591,7 +2617,7 @@
         <v>44</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>7</v>
@@ -2602,7 +2628,7 @@
         <v>45</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>7</v>
@@ -2613,7 +2639,7 @@
         <v>46</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>7</v>
@@ -2624,7 +2650,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>7</v>
@@ -2635,7 +2661,7 @@
         <v>48</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>7</v>
@@ -2646,7 +2672,7 @@
         <v>49</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>7</v>
@@ -2657,7 +2683,7 @@
         <v>50</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>7</v>
@@ -2668,7 +2694,7 @@
         <v>51</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>7</v>
@@ -2679,7 +2705,7 @@
         <v>52</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>7</v>
@@ -2690,7 +2716,7 @@
         <v>53</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>7</v>
@@ -2701,7 +2727,7 @@
         <v>54</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>7</v>
@@ -2712,7 +2738,7 @@
         <v>55</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>8</v>
@@ -2723,7 +2749,7 @@
         <v>56</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>9</v>
@@ -2734,7 +2760,7 @@
         <v>57</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>9</v>
@@ -2745,7 +2771,7 @@
         <v>58</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>9</v>
@@ -2756,7 +2782,7 @@
         <v>59</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>10</v>
@@ -2767,7 +2793,7 @@
         <v>60</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>10</v>
@@ -2778,7 +2804,7 @@
         <v>61</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>10</v>
@@ -2789,7 +2815,7 @@
         <v>62</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>10</v>
@@ -2800,7 +2826,7 @@
         <v>63</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>10</v>
@@ -2811,7 +2837,7 @@
         <v>64</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>10</v>
@@ -2822,7 +2848,7 @@
         <v>65</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>10</v>
@@ -2833,7 +2859,7 @@
         <v>66</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>10</v>
@@ -2844,7 +2870,7 @@
         <v>67</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>10</v>
@@ -2855,7 +2881,7 @@
         <v>68</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>11</v>
@@ -2866,7 +2892,7 @@
         <v>69</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>11</v>
@@ -2877,7 +2903,7 @@
         <v>70</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>11</v>
@@ -2888,7 +2914,7 @@
         <v>71</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>11</v>
@@ -2899,7 +2925,7 @@
         <v>72</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>11</v>
@@ -2910,7 +2936,7 @@
         <v>73</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>11</v>
@@ -2921,7 +2947,7 @@
         <v>74</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>11</v>
@@ -2932,7 +2958,7 @@
         <v>75</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>11</v>
@@ -2943,7 +2969,7 @@
         <v>76</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>11</v>
@@ -2954,7 +2980,7 @@
         <v>77</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>11</v>
@@ -2965,7 +2991,7 @@
         <v>78</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>12</v>
@@ -2976,7 +3002,7 @@
         <v>79</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>13</v>
@@ -2987,7 +3013,7 @@
         <v>80</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>13</v>
@@ -2998,7 +3024,7 @@
         <v>81</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>13</v>
@@ -3009,7 +3035,7 @@
         <v>82</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>13</v>
@@ -3020,7 +3046,7 @@
         <v>83</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>13</v>
@@ -3031,7 +3057,7 @@
         <v>84</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>13</v>
@@ -3042,7 +3068,7 @@
         <v>85</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>13</v>
@@ -3053,7 +3079,7 @@
         <v>86</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>13</v>
@@ -3064,7 +3090,7 @@
         <v>87</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>13</v>
@@ -3075,7 +3101,7 @@
         <v>88</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>13</v>
@@ -3086,7 +3112,7 @@
         <v>89</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>13</v>
@@ -3097,7 +3123,7 @@
         <v>90</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>13</v>
@@ -3108,7 +3134,7 @@
         <v>91</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>13</v>
@@ -3119,7 +3145,7 @@
         <v>92</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>13</v>
@@ -3130,7 +3156,7 @@
         <v>93</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>13</v>
@@ -3141,7 +3167,7 @@
         <v>94</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>13</v>
@@ -3152,7 +3178,7 @@
         <v>95</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>13</v>
@@ -3163,7 +3189,7 @@
         <v>96</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>13</v>
@@ -3174,7 +3200,7 @@
         <v>97</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>13</v>
@@ -3185,7 +3211,7 @@
         <v>98</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>13</v>
@@ -3196,7 +3222,7 @@
         <v>99</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>3</v>
@@ -3207,7 +3233,7 @@
         <v>100</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>14</v>
@@ -3218,7 +3244,7 @@
         <v>101</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>14</v>
@@ -3229,7 +3255,7 @@
         <v>102</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>14</v>
@@ -3240,7 +3266,7 @@
         <v>103</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>15</v>
@@ -3251,7 +3277,7 @@
         <v>104</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>16</v>
@@ -3262,7 +3288,7 @@
         <v>105</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>16</v>
@@ -3273,7 +3299,7 @@
         <v>106</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>16</v>
@@ -3284,7 +3310,7 @@
         <v>107</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>16</v>
@@ -3295,7 +3321,7 @@
         <v>108</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>16</v>
@@ -3306,7 +3332,7 @@
         <v>109</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>16</v>
@@ -3317,7 +3343,7 @@
         <v>110</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>16</v>
@@ -3328,7 +3354,7 @@
         <v>111</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>16</v>
@@ -3339,7 +3365,7 @@
         <v>112</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>16</v>
@@ -3350,7 +3376,7 @@
         <v>113</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>16</v>
@@ -3361,7 +3387,7 @@
         <v>114</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>16</v>
@@ -3372,7 +3398,7 @@
         <v>115</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>17</v>
@@ -3383,7 +3409,7 @@
         <v>116</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>17</v>
@@ -3394,7 +3420,7 @@
         <v>117</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>17</v>
@@ -3405,7 +3431,7 @@
         <v>118</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>17</v>
@@ -3416,7 +3442,7 @@
         <v>119</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>18</v>
@@ -3427,7 +3453,7 @@
         <v>120</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>18</v>
@@ -3438,7 +3464,7 @@
         <v>121</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>18</v>
@@ -3449,7 +3475,7 @@
         <v>122</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>18</v>
@@ -3460,7 +3486,7 @@
         <v>123</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>18</v>
@@ -3471,7 +3497,7 @@
         <v>124</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>18</v>
@@ -3482,7 +3508,7 @@
         <v>125</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>18</v>
@@ -3493,7 +3519,7 @@
         <v>126</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>19</v>
@@ -3504,7 +3530,7 @@
         <v>127</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>19</v>
@@ -3515,7 +3541,7 @@
         <v>128</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>19</v>
@@ -3526,7 +3552,7 @@
         <v>129</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>19</v>
@@ -3537,7 +3563,7 @@
         <v>130</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>19</v>
@@ -3548,7 +3574,7 @@
         <v>131</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>19</v>
@@ -3559,7 +3585,7 @@
         <v>132</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>19</v>
@@ -3570,7 +3596,7 @@
         <v>133</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>19</v>
@@ -3581,7 +3607,7 @@
         <v>134</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>19</v>
@@ -3592,7 +3618,7 @@
         <v>135</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>19</v>
@@ -3603,7 +3629,7 @@
         <v>136</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>19</v>
@@ -3614,7 +3640,7 @@
         <v>137</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>19</v>
@@ -3625,7 +3651,7 @@
         <v>138</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>19</v>
@@ -3636,7 +3662,7 @@
         <v>139</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>19</v>
@@ -3647,7 +3673,7 @@
         <v>140</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>19</v>
@@ -3658,7 +3684,7 @@
         <v>141</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>19</v>
@@ -3669,7 +3695,7 @@
         <v>142</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>19</v>
@@ -3680,7 +3706,7 @@
         <v>143</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>20</v>
@@ -3691,7 +3717,7 @@
         <v>144</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>25</v>
@@ -3702,7 +3728,7 @@
         <v>145</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>20</v>
@@ -3713,7 +3739,7 @@
         <v>146</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>20</v>
@@ -3724,7 +3750,7 @@
         <v>147</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>20</v>
@@ -3735,7 +3761,7 @@
         <v>148</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>21</v>
@@ -3746,7 +3772,7 @@
         <v>149</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>21</v>
@@ -3757,7 +3783,7 @@
         <v>150</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>21</v>
@@ -3768,7 +3794,7 @@
         <v>151</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>21</v>
@@ -3779,7 +3805,7 @@
         <v>152</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>21</v>
@@ -3790,7 +3816,7 @@
         <v>153</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>21</v>
@@ -3801,7 +3827,7 @@
         <v>154</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>21</v>
@@ -3812,7 +3838,7 @@
         <v>155</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>21</v>
@@ -3823,7 +3849,7 @@
         <v>156</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>21</v>
@@ -3834,7 +3860,7 @@
         <v>157</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>22</v>
@@ -3845,7 +3871,7 @@
         <v>158</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>23</v>
@@ -3856,7 +3882,7 @@
         <v>159</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>23</v>
@@ -3867,7 +3893,7 @@
         <v>160</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>23</v>
@@ -3878,7 +3904,7 @@
         <v>161</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>23</v>
@@ -3889,7 +3915,7 @@
         <v>162</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>23</v>
@@ -3900,7 +3926,7 @@
         <v>163</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>23</v>
@@ -3911,7 +3937,7 @@
         <v>164</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>23</v>
@@ -3922,7 +3948,7 @@
         <v>165</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>23</v>
@@ -3933,7 +3959,7 @@
         <v>166</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>23</v>
@@ -3944,7 +3970,7 @@
         <v>167</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>23</v>
@@ -3955,7 +3981,7 @@
         <v>168</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>23</v>
@@ -3966,7 +3992,7 @@
         <v>169</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>23</v>
@@ -3977,7 +4003,7 @@
         <v>170</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>23</v>
@@ -3988,7 +4014,7 @@
         <v>171</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C169" s="0" t="n">
         <v>23</v>
@@ -3999,7 +4025,7 @@
         <v>172</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>23</v>
@@ -4010,7 +4036,7 @@
         <v>173</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>23</v>
@@ -4021,7 +4047,7 @@
         <v>174</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C172" s="0" t="n">
         <v>23</v>
@@ -4032,7 +4058,7 @@
         <v>175</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>23</v>
@@ -4043,7 +4069,7 @@
         <v>176</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>23</v>
@@ -4054,7 +4080,7 @@
         <v>177</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>23</v>
@@ -4065,7 +4091,7 @@
         <v>178</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>23</v>
@@ -4076,7 +4102,7 @@
         <v>179</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>23</v>
@@ -4087,7 +4113,7 @@
         <v>180</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>22</v>
@@ -4098,7 +4124,7 @@
         <v>181</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C179" s="0" t="n">
         <v>24</v>
@@ -4109,7 +4135,7 @@
         <v>182</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C180" s="0" t="n">
         <v>19</v>
@@ -4120,7 +4146,7 @@
         <v>183</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C181" s="0" t="n">
         <v>3</v>
@@ -4131,7 +4157,7 @@
         <v>184</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C182" s="0" t="n">
         <v>23</v>
@@ -4142,7 +4168,7 @@
         <v>185</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C183" s="0" t="n">
         <v>3</v>
@@ -4153,7 +4179,7 @@
         <v>186</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C184" s="0" t="n">
         <v>3</v>
@@ -4164,7 +4190,7 @@
         <v>187</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C185" s="0" t="n">
         <v>26</v>
@@ -4175,7 +4201,7 @@
         <v>188</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C186" s="0" t="n">
         <v>26</v>
@@ -4186,7 +4212,7 @@
         <v>189</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C187" s="0" t="n">
         <v>26</v>
@@ -4197,7 +4223,7 @@
         <v>190</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C188" s="0" t="n">
         <v>26</v>
@@ -4208,7 +4234,7 @@
         <v>191</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C189" s="0" t="n">
         <v>26</v>
@@ -4219,7 +4245,7 @@
         <v>192</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C190" s="0" t="n">
         <v>26</v>
@@ -4230,7 +4256,7 @@
         <v>193</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C191" s="0" t="n">
         <v>26</v>
@@ -4241,7 +4267,7 @@
         <v>194</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C192" s="0" t="n">
         <v>26</v>
@@ -4252,7 +4278,7 @@
         <v>195</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C193" s="0" t="n">
         <v>26</v>
@@ -4263,7 +4289,7 @@
         <v>196</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C194" s="0" t="n">
         <v>26</v>
@@ -4274,7 +4300,7 @@
         <v>197</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C195" s="0" t="n">
         <v>26</v>
@@ -4285,7 +4311,7 @@
         <v>198</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C196" s="0" t="n">
         <v>20</v>
@@ -4296,7 +4322,7 @@
         <v>199</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C197" s="0" t="n">
         <v>24</v>
@@ -4307,7 +4333,7 @@
         <v>200</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C198" s="0" t="n">
         <v>13</v>
@@ -4318,7 +4344,7 @@
         <v>201</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C199" s="0" t="n">
         <v>16</v>
@@ -4329,7 +4355,7 @@
         <v>202</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C200" s="0" t="n">
         <v>13</v>
@@ -4340,7 +4366,7 @@
         <v>203</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C201" s="0" t="n">
         <v>13</v>
@@ -4351,7 +4377,7 @@
         <v>204</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C202" s="0" t="n">
         <v>13</v>
@@ -4362,7 +4388,7 @@
         <v>205</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C203" s="0" t="n">
         <v>13</v>
@@ -4395,119 +4421,119 @@
       <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
